--- a/MNE-portal-app/reports/SG-MNE2_FY2017.xlsx
+++ b/MNE-portal-app/reports/SG-MNE2_FY2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepp\Documents\Y3 SEM2\IS4302 BLOCKCHAIN AND DISTRIBUTED LEDGER TECHNOLOGIES\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="194">
   <si>
     <t>Tax Reference Number of Reporting Entity: *</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Timestamp: *</t>
+  </si>
+  <si>
+    <t>2017-12-12T08:35:09</t>
   </si>
   <si>
     <t>ResCountryCode *</t>
@@ -660,17 +663,20 @@
     <t>The Revenue figures exclude an extraordinary gain from the sales of two landed properties in Australia and New Zealands.</t>
   </si>
   <si>
-    <t>113888888K</t>
-  </si>
-  <si>
-    <t>2016-12-12T08:35:09</t>
-  </si>
-  <si>
-    <t>113888888K.2016121208305501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting officer: Ms Christine, 61234567, A@xyz.com.
-IT officer: Mr B, 61123456, B@xyz.com </t>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reporting officer: Ms C, 61234567, C@xyz.com.
+IT officer: Mr D, 61123456, D@xyz.com </t>
+  </si>
+  <si>
+    <t>SG-MNE2(114777777K)</t>
+  </si>
+  <si>
+    <t>114777777K.2017121208305501</t>
+  </si>
+  <si>
+    <t>114777777K</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1784,7 @@
   <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1828,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="20"/>
@@ -2054,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="22"/>
@@ -2092,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="22"/>
@@ -2204,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="18"/>
@@ -2242,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="18"/>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>2</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="105"/>
@@ -2463,7 +2469,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" s="59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
         <v>2</v>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="24"/>
@@ -2541,7 +2547,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="24"/>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="24"/>
@@ -2617,10 +2623,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="105"/>
@@ -2657,7 +2663,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>2</v>
@@ -2697,10 +2703,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="103"/>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" s="59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="24"/>
@@ -2775,10 +2781,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="105"/>
@@ -2815,10 +2821,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="105"/>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" s="60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="79">
         <v>10</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="79">
         <v>10</v>
@@ -2935,7 +2941,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31" s="60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="24"/>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" s="60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="24"/>
@@ -3011,7 +3017,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="77">
         <v>523110</v>
@@ -3051,10 +3057,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34" s="60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="105"/>
@@ -3091,7 +3097,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35" s="60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="24"/>
@@ -3129,7 +3135,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36" s="59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="24"/>
@@ -3167,10 +3173,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37" s="59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="105"/>
@@ -3207,10 +3213,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38" s="59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="103"/>
@@ -3247,10 +3253,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39" s="61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="103"/>
@@ -3287,7 +3293,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40" s="61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="12"/>
@@ -3397,7 +3403,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="92"/>
       <c r="C43" s="92"/>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="108"/>
       <c r="D45" s="103"/>
@@ -3511,7 +3517,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46" s="52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>15</v>
@@ -3551,10 +3557,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" s="52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="103"/>
       <c r="D47" s="103"/>
@@ -3631,7 +3637,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
       <c r="E49" s="94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="95"/>
       <c r="G49" s="96"/>
@@ -3665,46 +3671,46 @@
     </row>
     <row r="50" spans="1:34" ht="151.15" x14ac:dyDescent="0.45">
       <c r="A50" s="54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I50" s="71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L50" s="71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M50" s="71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N50" s="71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
@@ -3729,14 +3735,14 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="71">
         <v>700000000</v>
@@ -3791,14 +3797,14 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="71">
         <v>0</v>
@@ -3853,14 +3859,14 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A53" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" s="71">
         <v>600000000</v>
@@ -3915,14 +3921,14 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A54" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="71">
         <v>80000</v>
@@ -3977,10 +3983,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A55" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25" t="s">
@@ -4111,7 +4117,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A58" s="91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="92"/>
       <c r="C58" s="92"/>
@@ -4149,10 +4155,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -4189,7 +4195,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A60" s="52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>15</v>
@@ -4236,7 +4242,7 @@
       <c r="F61" s="86"/>
       <c r="G61" s="86"/>
       <c r="H61" s="109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I61" s="109"/>
       <c r="J61" s="109"/>
@@ -4251,7 +4257,7 @@
       <c r="S61" s="109"/>
       <c r="T61" s="87"/>
       <c r="U61" s="116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V61" s="117"/>
       <c r="W61" s="117"/>
@@ -4271,19 +4277,19 @@
       <c r="A62" s="82"/>
       <c r="B62" s="82"/>
       <c r="C62" s="110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="110"/>
       <c r="E62" s="97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="98"/>
       <c r="G62" s="99"/>
       <c r="H62" s="111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I62" s="113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J62" s="114"/>
       <c r="K62" s="114"/>
@@ -4294,10 +4300,10 @@
       <c r="P62" s="114"/>
       <c r="Q62" s="115"/>
       <c r="R62" s="111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S62" s="111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T62" s="82"/>
       <c r="U62" s="119"/>
@@ -4317,126 +4323,126 @@
     </row>
     <row r="63" spans="1:34" ht="164.65" x14ac:dyDescent="0.45">
       <c r="A63" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="83" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G63" s="83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" s="112"/>
       <c r="I63" s="84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J63" s="84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K63" s="84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L63" s="84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M63" s="84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N63" s="84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O63" s="84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P63" s="84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q63" s="84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R63" s="112"/>
       <c r="S63" s="112"/>
       <c r="T63" s="68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U63" s="69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V63" s="69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W63" s="69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X63" s="69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y63" s="69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z63" s="69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA63" s="69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB63" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC63" s="69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD63" s="69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE63" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF63" s="69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG63" s="69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH63" s="70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A64" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
@@ -4446,20 +4452,20 @@
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
       <c r="P64" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q64" s="32"/>
       <c r="R64" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S64" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T64" s="81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U64" s="94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V64" s="95"/>
       <c r="W64" s="95"/>
@@ -4477,28 +4483,28 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
@@ -4508,18 +4514,18 @@
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
       <c r="P65" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q65" s="32"/>
       <c r="R65" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T65" s="81"/>
       <c r="U65" s="94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V65" s="95"/>
       <c r="W65" s="95"/>
@@ -4537,28 +4543,28 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
@@ -4568,18 +4574,18 @@
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
       <c r="P66" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q66" s="32"/>
       <c r="R66" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S66" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T66" s="81"/>
       <c r="U66" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V66" s="95"/>
       <c r="W66" s="95"/>
@@ -4597,31 +4603,31 @@
     </row>
     <row r="67" spans="1:34" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A67" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32">
@@ -4633,21 +4639,21 @@
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
       <c r="O67" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P67" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q67" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R67" s="32"/>
       <c r="S67" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T67" s="81"/>
       <c r="U67" s="94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V67" s="95"/>
       <c r="W67" s="95"/>
@@ -4662,27 +4668,27 @@
       <c r="AF67" s="95"/>
       <c r="AG67" s="96"/>
       <c r="AH67" s="63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E68" s="30"/>
       <c r="F68" s="36"/>
       <c r="G68" s="31"/>
       <c r="H68" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
@@ -4692,20 +4698,20 @@
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S68" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T68" s="81"/>
       <c r="U68" s="94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V68" s="95"/>
       <c r="W68" s="95"/>
@@ -4723,20 +4729,20 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="30"/>
       <c r="F69" s="36"/>
       <c r="G69" s="31"/>
       <c r="H69" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
@@ -4746,18 +4752,18 @@
       <c r="N69" s="32"/>
       <c r="O69" s="32"/>
       <c r="P69" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q69" s="32"/>
       <c r="R69" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S69" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T69" s="81"/>
       <c r="U69" s="94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V69" s="95"/>
       <c r="W69" s="95"/>
@@ -4775,20 +4781,20 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70" s="36"/>
       <c r="E70" s="30"/>
       <c r="F70" s="36"/>
       <c r="G70" s="31"/>
       <c r="H70" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
@@ -4798,20 +4804,20 @@
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
       <c r="P70" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="32"/>
       <c r="R70" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S70" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T70" s="81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U70" s="94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V70" s="95"/>
       <c r="W70" s="95"/>
@@ -4826,7 +4832,7 @@
       <c r="AF70" s="95"/>
       <c r="AG70" s="96"/>
       <c r="AH70" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.45">
@@ -4834,10 +4840,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>2</v>
@@ -4856,18 +4862,18 @@
       <c r="N71" s="32"/>
       <c r="O71" s="32"/>
       <c r="P71" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q71" s="32"/>
       <c r="R71" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S71" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T71" s="81"/>
       <c r="U71" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V71" s="95"/>
       <c r="W71" s="95"/>
@@ -4888,10 +4894,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>2</v>
@@ -4910,18 +4916,18 @@
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
       <c r="P72" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q72" s="32"/>
       <c r="R72" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S72" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T72" s="81"/>
       <c r="U72" s="94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V72" s="95"/>
       <c r="W72" s="95"/>
@@ -4942,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D73" s="36" t="s">
         <v>2</v>
@@ -4964,18 +4970,18 @@
       <c r="N73" s="32"/>
       <c r="O73" s="32"/>
       <c r="P73" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q73" s="32"/>
       <c r="R73" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S73" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T73" s="81"/>
       <c r="U73" s="94" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V73" s="95"/>
       <c r="W73" s="95"/>
@@ -4996,10 +5002,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" s="36" t="s">
         <v>2</v>
@@ -5018,18 +5024,18 @@
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
       <c r="P74" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q74" s="32"/>
       <c r="R74" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S74" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T74" s="81"/>
       <c r="U74" s="94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V74" s="95"/>
       <c r="W74" s="95"/>
@@ -5155,7 +5161,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A78" s="122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" s="123"/>
       <c r="C78" s="123"/>
@@ -5193,10 +5199,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80" s="61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>15</v>
@@ -5227,10 +5233,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C81" s="134"/>
       <c r="D81" s="135"/>
@@ -5244,7 +5250,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="16"/>
@@ -5259,10 +5265,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -5276,10 +5282,10 @@
     </row>
     <row r="84" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A84" s="65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B84" s="80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -5293,7 +5299,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B85" s="35"/>
       <c r="C85" s="136"/>
@@ -5321,7 +5327,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B87" s="126"/>
       <c r="C87" s="126"/>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B93" s="123"/>
       <c r="C93" s="123"/>
@@ -5416,10 +5422,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -5433,7 +5439,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>15</v>
@@ -5450,10 +5456,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" s="134"/>
       <c r="D96" s="135"/>
@@ -5467,10 +5473,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="17"/>
@@ -5484,10 +5490,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -5501,10 +5507,10 @@
     </row>
     <row r="99" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A99" s="65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -5518,7 +5524,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100" s="35"/>
       <c r="C100" s="136"/>
@@ -5546,7 +5552,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B102" s="126"/>
       <c r="C102" s="126"/>
@@ -5626,7 +5632,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="123" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="123"/>
       <c r="C108" s="123"/>
@@ -5641,10 +5647,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -5658,7 +5664,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B110" s="41" t="s">
         <v>15</v>
@@ -5675,10 +5681,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C111" s="134"/>
       <c r="D111" s="135"/>
@@ -5692,10 +5698,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="17"/>
@@ -5709,10 +5715,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" s="90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -5726,10 +5732,10 @@
     </row>
     <row r="114" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A114" s="58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114" s="80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -5743,7 +5749,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B115" s="35"/>
       <c r="C115" s="137"/>
@@ -5771,7 +5777,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B117" s="126"/>
       <c r="C117" s="126"/>
